--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -3,24 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\MagnifyB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7137B9-A267-4C1C-A53F-01C914C7A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEFDF08-53B3-416E-9BF8-62845CCEBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheetnames" sheetId="3" r:id="rId1"/>
-    <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="Login1" sheetId="2" r:id="rId3"/>
-    <sheet name="Login2" sheetId="4" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login1" sheetId="2" r:id="rId2"/>
+    <sheet name="Login2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -245,39 +244,13 @@
   <si>
     <t>invalid email addresss</t>
   </si>
-  <si>
-    <t>SheetName</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Login1</t>
-  </si>
-  <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>S.no</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="808">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,67 +307,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -404,7 +347,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -414,7 +402,237 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,72 +642,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -524,31 +682,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -574,6 +707,3621 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -599,7 +4347,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -679,12 +4427,494 @@
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="212" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="214" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="216" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="218" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="220" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="222" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="224" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="226" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="228" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="230" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="232" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="234" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="236" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="238" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="240" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="242" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="244" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="246" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="248" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="250" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="252" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="254" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="255" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="256" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="257" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="258" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="259" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="260" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="261" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="262" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="263" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="264" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="265" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="266" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="267" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="268" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="269" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="270" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="271" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="272" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="273" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="275" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="277" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="279" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="281" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="283" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="285" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="287" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="289" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="291" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="313" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="317" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="319" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="323" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="325" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="329" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="331" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="335" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="337" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="341" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="343" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="345" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="347" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="349" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="351" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="353" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="355" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="357" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="359" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="361" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="363" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="365" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="367" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="369" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="371" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="373" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="387" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="391" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="393" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="395" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="397" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="399" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="401" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="403" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="405" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="407" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="409" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="413" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="415" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="417" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="419" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="421" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="423" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="425" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="427" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="429" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="431" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="433" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="435" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="437" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="439" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="441" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="443" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="445" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="449" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="451" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="453" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="455" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="457" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="459" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="461" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="463" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="465" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="467" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="469" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="471" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="473" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="475" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="477" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="479" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="481" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="483" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="485" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="487" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="489" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="491" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="493" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="495" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="497" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="499" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="501" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="503" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="505" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="507" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="509" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="511" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="513" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="515" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="517" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="519" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="521" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="523" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="525" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="527" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="529" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="531" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="533" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="535" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="537" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="539" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="541" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="543" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="545" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="547" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="549" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="551" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="553" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="555" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="557" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="559" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="563" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="565" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="567" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="569" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="571" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="573" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="575" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="577" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="579" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="581" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="583" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="587" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="589" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="591" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="593" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="595" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="597" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="599" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="601" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="603" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="605" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="609" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="611" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="613" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="615" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="617" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="619" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="621" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="623" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="625" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="627" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="629" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="631" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="633" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="635" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="637" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="639" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="641" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="643" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="645" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="647" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="649" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="651" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="653" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="655" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="657" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="659" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="661" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="663" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="665" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="667" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="669" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="671" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="673" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="675" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="677" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="679" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="681" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="683" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="685" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="687" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="689" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="691" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="693" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="695" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="697" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="699" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="701" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="703" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="705" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="707" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="709" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="711" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="713" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="715" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="717" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="719" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="721" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="723" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="725" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="727" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="729" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="731" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="733" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="735" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="737" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="739" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="741" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="743" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="745" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="747" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="749" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="751" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="753" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="755" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="757" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="759" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="761" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="763" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="765" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="767" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="769" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="771" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="773" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="775" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="777" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="779" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="781" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="783" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="785" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="787" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="789" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="791" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="793" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="795" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="797" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="799" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="801" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="803" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="805" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="807" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,88 +5195,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7430BC92-B563-4736-A1E7-9EED3BCBD7A7}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="65"/>
-    <col min="2" max="2" width="11.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
-        <v>1</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
-        <v>2</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <v>3</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="87.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="87.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="11.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1085,7 +5250,13 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" t="s" s="552">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="369">
+        <v>5</v>
+      </c>
+      <c r="G2" s="120" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1105,6 +5276,12 @@
       <c r="E3" t="s">
         <v>64</v>
       </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1122,6 +5299,12 @@
       <c r="E4" t="s">
         <v>64</v>
       </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="122" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1136,7 +5319,13 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="123" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1153,6 +5342,12 @@
       <c r="E6" t="s">
         <v>64</v>
       </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1170,6 +5365,12 @@
       <c r="E7" t="s">
         <v>64</v>
       </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1187,6 +5388,12 @@
       <c r="E8" t="s">
         <v>64</v>
       </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="126" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1204,6 +5411,12 @@
       <c r="E9" t="s">
         <v>64</v>
       </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="127" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1216,9 +5429,15 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="128" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1238,6 +5457,12 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="129" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1249,7 +5474,13 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="130" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1269,6 +5500,12 @@
       <c r="E13" t="s">
         <v>64</v>
       </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="131" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1286,6 +5523,12 @@
       <c r="E14" t="s">
         <v>64</v>
       </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="132" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1303,6 +5546,12 @@
       <c r="E15" t="s">
         <v>64</v>
       </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="133" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1315,13 +5564,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1337,8 +5592,14 @@
       <c r="E17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
@@ -1348,11 +5609,17 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="136" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +5635,14 @@
       <c r="E19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -1385,8 +5658,14 @@
       <c r="E20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="138" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -1402,8 +5681,14 @@
       <c r="E21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -1414,13 +5699,19 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1436,8 +5727,14 @@
       <c r="E23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="141" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
@@ -1447,11 +5744,17 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="142" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1467,8 +5770,14 @@
       <c r="E25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -1484,8 +5793,14 @@
       <c r="E26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="144" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -1501,8 +5816,14 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="145" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>62</v>
       </c>
@@ -1513,13 +5834,19 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="146" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1535,8 +5862,14 @@
       <c r="E29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -1546,11 +5879,17 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="148" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -1566,8 +5905,14 @@
       <c r="E31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="149" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1583,8 +5928,14 @@
       <c r="E32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="150" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +5951,14 @@
       <c r="E33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -1612,13 +5969,19 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1634,8 +5997,14 @@
       <c r="E35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1645,11 +6014,17 @@
       <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="154" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
@@ -1665,8 +6040,14 @@
       <c r="E37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="155" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
@@ -1682,8 +6063,14 @@
       <c r="E38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="156" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -1699,8 +6086,14 @@
       <c r="E39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="157" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>62</v>
       </c>
@@ -1711,13 +6104,19 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="158" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -1733,8 +6132,14 @@
       <c r="E41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="159" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
@@ -1744,11 +6149,17 @@
       <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="160" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -1762,8 +6173,14 @@
       <c r="E43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="161" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
@@ -1779,8 +6196,14 @@
       <c r="E44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="162" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -1796,8 +6219,14 @@
       <c r="E45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="163" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
@@ -1808,13 +6237,19 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="164" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>29</v>
       </c>
@@ -1830,8 +6265,14 @@
       <c r="E47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="165" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
@@ -1841,11 +6282,17 @@
       <c r="D48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="166" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
@@ -1861,8 +6308,14 @@
       <c r="E49" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
@@ -1876,8 +6329,14 @@
       <c r="E50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="168" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
@@ -1893,8 +6352,14 @@
       <c r="E51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="169" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
@@ -1905,13 +6370,19 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="170" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>29</v>
       </c>
@@ -1927,8 +6398,14 @@
       <c r="E53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="171" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>43</v>
       </c>
@@ -1938,11 +6415,17 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="172" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
@@ -1956,8 +6439,14 @@
       <c r="E55" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>12</v>
       </c>
@@ -1971,8 +6460,14 @@
       <c r="E56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="174" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
@@ -1988,8 +6483,14 @@
       <c r="E57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="175" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -2000,13 +6501,19 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="176" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
@@ -2022,8 +6529,14 @@
       <c r="E59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>48</v>
       </c>
@@ -2033,11 +6546,17 @@
       <c r="D60" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="178" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
@@ -2053,8 +6572,14 @@
       <c r="E61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="179" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
@@ -2070,8 +6595,14 @@
       <c r="E62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="180" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -2087,8 +6618,14 @@
       <c r="E63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="181" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>
@@ -2099,13 +6636,19 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>29</v>
       </c>
@@ -2121,8 +6664,14 @@
       <c r="E65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="183" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>51</v>
       </c>
@@ -2132,11 +6681,17 @@
       <c r="D66" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="184" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
@@ -2152,8 +6707,14 @@
       <c r="E67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="185" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>12</v>
       </c>
@@ -2169,8 +6730,14 @@
       <c r="E68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="186" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>13</v>
       </c>
@@ -2186,8 +6753,14 @@
       <c r="E69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="187" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>62</v>
       </c>
@@ -2198,13 +6771,19 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="188" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>29</v>
       </c>
@@ -2220,8 +6799,14 @@
       <c r="E71" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>53</v>
       </c>
@@ -2231,11 +6816,17 @@
       <c r="D72" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="190" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
@@ -2251,8 +6842,14 @@
       <c r="E73" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>12</v>
       </c>
@@ -2268,8 +6865,14 @@
       <c r="E74" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="192" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>13</v>
       </c>
@@ -2285,8 +6888,14 @@
       <c r="E75" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="193" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
@@ -2297,13 +6906,19 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="194" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>29</v>
       </c>
@@ -2319,8 +6934,14 @@
       <c r="E77" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="195" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>56</v>
       </c>
@@ -2330,11 +6951,17 @@
       <c r="D78" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="196" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
@@ -2350,8 +6977,14 @@
       <c r="E79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>12</v>
       </c>
@@ -2367,8 +7000,14 @@
       <c r="E80" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="198" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>13</v>
       </c>
@@ -2384,8 +7023,14 @@
       <c r="E81" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="199" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>61</v>
       </c>
@@ -2396,13 +7041,19 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="200" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>29</v>
       </c>
@@ -2418,15 +7069,27 @@
       <c r="E83" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="201" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D84" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="202" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2444,22 +7107,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288F252C-F2C4-4CC4-A8E5-65075246C2EF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2498,13 +7162,13 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" t="s" s="519">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" t="s" s="530">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" t="s" s="541">
         <v>5</v>
       </c>
     </row>
@@ -2521,13 +7185,13 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="E3" t="s" s="520">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="531">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s" s="542">
         <v>65</v>
       </c>
     </row>
@@ -2544,13 +7208,13 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="E4" t="s" s="521">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="532">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s" s="543">
         <v>65</v>
       </c>
     </row>
@@ -2567,13 +7231,13 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="56" t="s">
+      <c r="E5" t="s" s="522">
         <v>10</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="F5" t="s" s="533">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="544">
         <v>10</v>
       </c>
     </row>
@@ -2587,13 +7251,13 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="E6" t="s" s="523">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="534">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s" s="545">
         <v>65</v>
       </c>
     </row>
@@ -2610,13 +7274,13 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="E7" t="s" s="524">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="535">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s" s="546">
         <v>65</v>
       </c>
     </row>
@@ -2633,13 +7297,13 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="E8" t="s" s="525">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="536">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s" s="547">
         <v>65</v>
       </c>
     </row>
@@ -2656,13 +7320,13 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="E9" t="s" s="526">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="537">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s" s="548">
         <v>65</v>
       </c>
     </row>
@@ -2677,15 +7341,15 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="527">
         <v>66</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="F10" t="s" s="538">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s" s="549">
         <v>66</v>
       </c>
     </row>
@@ -2702,13 +7366,13 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="E11" t="s" s="528">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="539">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s" s="550">
         <v>65</v>
       </c>
     </row>
@@ -2719,13 +7383,13 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="63" t="s">
+      <c r="E12" t="s" s="529">
         <v>60</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="F12" t="s" s="540">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s" s="551">
         <v>60</v>
       </c>
     </row>
@@ -2738,7 +7402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6B645-6CE9-40A0-9AA3-FF41A369F6E4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2748,13 +7412,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2793,13 +7457,13 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2819,10 +7483,10 @@
       <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2842,10 +7506,10 @@
       <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2865,10 +7529,10 @@
       <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2885,10 +7549,10 @@
       <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2908,10 +7572,10 @@
       <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="F7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2931,10 +7595,10 @@
       <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2954,10 +7618,10 @@
       <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2977,10 +7641,10 @@
       <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3000,10 +7664,10 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3017,10 +7681,10 @@
       <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="24" t="s">
         <v>60</v>
       </c>
     </row>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -293,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="808">
+  <fills count="954">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4328,6 +4328,736 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -4347,7 +5077,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="553">
+  <cellXfs count="626">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4915,6 +5645,79 @@
     <xf numFmtId="0" fontId="0" fillId="803" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="805" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="807" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="809" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="811" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="813" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="815" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="817" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="819" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="821" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="823" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="825" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="827" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="829" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="831" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="833" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="835" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="837" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="839" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="841" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="843" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="845" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="847" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="849" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="851" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="853" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="855" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="857" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="859" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="861" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="863" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="865" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="867" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="869" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="871" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="873" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="875" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="877" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="879" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="881" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="883" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="885" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="887" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="889" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="891" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="893" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="895" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="897" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="899" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="901" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="903" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="905" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="907" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="909" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="911" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="913" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="915" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="917" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="919" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="921" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="923" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="925" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="927" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="929" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="931" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="933" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="935" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="937" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="939" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="941" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="943" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="945" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="947" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="949" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="951" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="953" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5273,8 +6076,8 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
+      <c r="E3" t="s" s="553">
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>64</v>
@@ -5296,8 +6099,8 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
+      <c r="E4" t="s" s="554">
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -5319,8 +6122,8 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
+      <c r="E5" t="s" s="555">
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -5339,8 +6142,8 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
+      <c r="E6" t="s" s="556">
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
@@ -5362,8 +6165,8 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="557">
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -5385,8 +6188,8 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="558">
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -5408,8 +6211,8 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="559">
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -5429,10 +6232,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="560">
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -5454,8 +6257,8 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="561">
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -5474,8 +6277,8 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
+      <c r="E12" t="s" s="562">
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -5497,8 +6300,8 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
+      <c r="E13" t="s" s="563">
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
@@ -5520,8 +6323,8 @@
       <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
-        <v>64</v>
+      <c r="E14" t="s" s="564">
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
@@ -5543,8 +6346,8 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
-        <v>64</v>
+      <c r="E15" t="s" s="565">
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>64</v>
@@ -5564,10 +6367,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s" s="566">
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -5589,8 +6392,8 @@
       <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
+      <c r="E17" t="s" s="567">
+        <v>65</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -5609,8 +6412,8 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
+      <c r="E18" t="s" s="568">
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>64</v>
@@ -5632,8 +6435,8 @@
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
-        <v>64</v>
+      <c r="E19" t="s" s="569">
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
@@ -5655,8 +6458,8 @@
       <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
+      <c r="E20" t="s" s="570">
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -5678,8 +6481,8 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
+      <c r="E21" t="s" s="571">
+        <v>65</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
@@ -5699,10 +6502,10 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="572">
+        <v>65</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
@@ -5724,8 +6527,8 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" t="s">
-        <v>64</v>
+      <c r="E23" t="s" s="573">
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
@@ -5744,8 +6547,8 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" t="s">
-        <v>64</v>
+      <c r="E24" t="s" s="574">
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>64</v>
@@ -5767,8 +6570,8 @@
       <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
+      <c r="E25" t="s" s="575">
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>64</v>
@@ -5790,8 +6593,8 @@
       <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>64</v>
+      <c r="E26" t="s" s="576">
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>64</v>
@@ -5813,8 +6616,8 @@
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
-        <v>64</v>
+      <c r="E27" t="s" s="577">
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>64</v>
@@ -5834,10 +6637,10 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E28" t="s" s="578">
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>64</v>
@@ -5859,8 +6662,8 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
-        <v>64</v>
+      <c r="E29" t="s" s="579">
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>64</v>
@@ -5879,8 +6682,8 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
-        <v>64</v>
+      <c r="E30" t="s" s="580">
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>64</v>
@@ -5902,8 +6705,8 @@
       <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="s">
-        <v>64</v>
+      <c r="E31" t="s" s="581">
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>64</v>
@@ -5925,8 +6728,8 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
-        <v>64</v>
+      <c r="E32" t="s" s="582">
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
@@ -5948,8 +6751,8 @@
       <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E33" t="s">
-        <v>64</v>
+      <c r="E33" t="s" s="583">
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>64</v>
@@ -5969,10 +6772,10 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="E34" t="s" s="584">
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>64</v>
@@ -5994,8 +6797,8 @@
       <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
-        <v>64</v>
+      <c r="E35" t="s" s="585">
+        <v>65</v>
       </c>
       <c r="F35" t="s">
         <v>64</v>
@@ -6014,8 +6817,8 @@
       <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E36" t="s">
-        <v>64</v>
+      <c r="E36" t="s" s="586">
+        <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>64</v>
@@ -6037,8 +6840,8 @@
       <c r="D37" t="s">
         <v>63</v>
       </c>
-      <c r="E37" t="s">
-        <v>64</v>
+      <c r="E37" t="s" s="587">
+        <v>65</v>
       </c>
       <c r="F37" t="s">
         <v>64</v>
@@ -6060,8 +6863,8 @@
       <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="E38" t="s">
-        <v>64</v>
+      <c r="E38" t="s" s="588">
+        <v>65</v>
       </c>
       <c r="F38" t="s">
         <v>64</v>
@@ -6083,8 +6886,8 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" t="s">
-        <v>64</v>
+      <c r="E39" t="s" s="589">
+        <v>65</v>
       </c>
       <c r="F39" t="s">
         <v>64</v>
@@ -6104,10 +6907,10 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E40" t="s" s="590">
+        <v>65</v>
       </c>
       <c r="F40" t="s">
         <v>64</v>
@@ -6129,8 +6932,8 @@
       <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" t="s">
-        <v>64</v>
+      <c r="E41" t="s" s="591">
+        <v>65</v>
       </c>
       <c r="F41" t="s">
         <v>64</v>
@@ -6149,8 +6952,8 @@
       <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" t="s">
-        <v>64</v>
+      <c r="E42" t="s" s="592">
+        <v>42</v>
       </c>
       <c r="F42" t="s">
         <v>64</v>
@@ -6170,8 +6973,8 @@
       <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" t="s">
-        <v>64</v>
+      <c r="E43" t="s" s="593">
+        <v>65</v>
       </c>
       <c r="F43" t="s">
         <v>64</v>
@@ -6193,8 +6996,8 @@
       <c r="D44" t="s">
         <v>63</v>
       </c>
-      <c r="E44" t="s">
-        <v>64</v>
+      <c r="E44" t="s" s="594">
+        <v>65</v>
       </c>
       <c r="F44" t="s">
         <v>64</v>
@@ -6216,8 +7019,8 @@
       <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="E45" t="s">
-        <v>64</v>
+      <c r="E45" t="s" s="595">
+        <v>65</v>
       </c>
       <c r="F45" t="s">
         <v>64</v>
@@ -6237,10 +7040,10 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E46" t="s" s="596">
+        <v>66</v>
       </c>
       <c r="F46" t="s">
         <v>64</v>
@@ -6262,8 +7065,8 @@
       <c r="D47" t="s">
         <v>63</v>
       </c>
-      <c r="E47" t="s">
-        <v>64</v>
+      <c r="E47" t="s" s="597">
+        <v>65</v>
       </c>
       <c r="F47" t="s">
         <v>64</v>
@@ -6282,8 +7085,8 @@
       <c r="D48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" t="s">
-        <v>64</v>
+      <c r="E48" t="s" s="598">
+        <v>44</v>
       </c>
       <c r="F48" t="s">
         <v>64</v>
@@ -6305,8 +7108,8 @@
       <c r="D49" t="s">
         <v>63</v>
       </c>
-      <c r="E49" t="s">
-        <v>64</v>
+      <c r="E49" t="s" s="599">
+        <v>65</v>
       </c>
       <c r="F49" t="s">
         <v>64</v>
@@ -6326,8 +7129,8 @@
       <c r="D50" t="s">
         <v>63</v>
       </c>
-      <c r="E50" t="s">
-        <v>64</v>
+      <c r="E50" t="s" s="600">
+        <v>65</v>
       </c>
       <c r="F50" t="s">
         <v>64</v>
@@ -6349,8 +7152,8 @@
       <c r="D51" t="s">
         <v>63</v>
       </c>
-      <c r="E51" t="s">
-        <v>64</v>
+      <c r="E51" t="s" s="601">
+        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>64</v>
@@ -6370,10 +7173,10 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E52" t="s" s="602">
+        <v>66</v>
       </c>
       <c r="F52" t="s">
         <v>64</v>
@@ -6395,8 +7198,8 @@
       <c r="D53" t="s">
         <v>63</v>
       </c>
-      <c r="E53" t="s">
-        <v>64</v>
+      <c r="E53" t="s" s="603">
+        <v>65</v>
       </c>
       <c r="F53" t="s">
         <v>64</v>
@@ -6415,8 +7218,8 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="E54" t="s">
-        <v>64</v>
+      <c r="E54" t="s" s="604">
+        <v>43</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -6436,8 +7239,8 @@
       <c r="D55" t="s">
         <v>63</v>
       </c>
-      <c r="E55" t="s">
-        <v>64</v>
+      <c r="E55" t="s" s="605">
+        <v>65</v>
       </c>
       <c r="F55" t="s">
         <v>64</v>
@@ -6457,8 +7260,8 @@
       <c r="D56" t="s">
         <v>63</v>
       </c>
-      <c r="E56" t="s">
-        <v>64</v>
+      <c r="E56" t="s" s="606">
+        <v>65</v>
       </c>
       <c r="F56" t="s">
         <v>64</v>
@@ -6480,8 +7283,8 @@
       <c r="D57" t="s">
         <v>63</v>
       </c>
-      <c r="E57" t="s">
-        <v>64</v>
+      <c r="E57" t="s" s="607">
+        <v>65</v>
       </c>
       <c r="F57" t="s">
         <v>64</v>
@@ -6501,10 +7304,10 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E58" t="s" s="608">
+        <v>66</v>
       </c>
       <c r="F58" t="s">
         <v>64</v>
@@ -6526,8 +7329,8 @@
       <c r="D59" t="s">
         <v>63</v>
       </c>
-      <c r="E59" t="s">
-        <v>64</v>
+      <c r="E59" t="s" s="609">
+        <v>65</v>
       </c>
       <c r="F59" t="s">
         <v>64</v>
@@ -6546,8 +7349,8 @@
       <c r="D60" t="s">
         <v>63</v>
       </c>
-      <c r="E60" t="s">
-        <v>64</v>
+      <c r="E60" t="s" s="610">
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>64</v>
@@ -6569,8 +7372,8 @@
       <c r="D61" t="s">
         <v>63</v>
       </c>
-      <c r="E61" t="s">
-        <v>64</v>
+      <c r="E61" t="s" s="611">
+        <v>65</v>
       </c>
       <c r="F61" t="s">
         <v>64</v>
@@ -6592,8 +7395,8 @@
       <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="E62" t="s">
-        <v>64</v>
+      <c r="E62" t="s" s="612">
+        <v>65</v>
       </c>
       <c r="F62" t="s">
         <v>64</v>
@@ -6615,8 +7418,8 @@
       <c r="D63" t="s">
         <v>63</v>
       </c>
-      <c r="E63" t="s">
-        <v>64</v>
+      <c r="E63" t="s" s="613">
+        <v>65</v>
       </c>
       <c r="F63" t="s">
         <v>64</v>
@@ -6636,10 +7439,10 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E64" t="s" s="614">
+        <v>65</v>
       </c>
       <c r="F64" t="s">
         <v>64</v>
@@ -6661,8 +7464,8 @@
       <c r="D65" t="s">
         <v>63</v>
       </c>
-      <c r="E65" t="s">
-        <v>64</v>
+      <c r="E65" t="s" s="615">
+        <v>65</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>
@@ -6681,8 +7484,8 @@
       <c r="D66" t="s">
         <v>63</v>
       </c>
-      <c r="E66" t="s">
-        <v>64</v>
+      <c r="E66" t="s" s="616">
+        <v>51</v>
       </c>
       <c r="F66" t="s">
         <v>64</v>
@@ -6704,8 +7507,8 @@
       <c r="D67" t="s">
         <v>63</v>
       </c>
-      <c r="E67" t="s">
-        <v>64</v>
+      <c r="E67" t="s" s="617">
+        <v>65</v>
       </c>
       <c r="F67" t="s">
         <v>64</v>
@@ -6727,8 +7530,8 @@
       <c r="D68" t="s">
         <v>63</v>
       </c>
-      <c r="E68" t="s">
-        <v>64</v>
+      <c r="E68" t="s" s="618">
+        <v>65</v>
       </c>
       <c r="F68" t="s">
         <v>64</v>
@@ -6750,8 +7553,8 @@
       <c r="D69" t="s">
         <v>63</v>
       </c>
-      <c r="E69" t="s">
-        <v>64</v>
+      <c r="E69" t="s" s="619">
+        <v>65</v>
       </c>
       <c r="F69" t="s">
         <v>64</v>
@@ -6771,10 +7574,10 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="E70" t="s" s="620">
+        <v>65</v>
       </c>
       <c r="F70" t="s">
         <v>64</v>
@@ -6796,8 +7599,8 @@
       <c r="D71" t="s">
         <v>63</v>
       </c>
-      <c r="E71" t="s">
-        <v>64</v>
+      <c r="E71" t="s" s="621">
+        <v>65</v>
       </c>
       <c r="F71" t="s">
         <v>64</v>
@@ -6816,8 +7619,8 @@
       <c r="D72" t="s">
         <v>63</v>
       </c>
-      <c r="E72" t="s">
-        <v>64</v>
+      <c r="E72" t="s" s="622">
+        <v>53</v>
       </c>
       <c r="F72" t="s">
         <v>64</v>
@@ -6839,8 +7642,8 @@
       <c r="D73" t="s">
         <v>63</v>
       </c>
-      <c r="E73" t="s">
-        <v>64</v>
+      <c r="E73" t="s" s="623">
+        <v>65</v>
       </c>
       <c r="F73" t="s">
         <v>64</v>
@@ -6862,8 +7665,8 @@
       <c r="D74" t="s">
         <v>63</v>
       </c>
-      <c r="E74" t="s">
-        <v>64</v>
+      <c r="E74" t="s" s="624">
+        <v>65</v>
       </c>
       <c r="F74" t="s">
         <v>64</v>
@@ -6885,8 +7688,8 @@
       <c r="D75" t="s">
         <v>63</v>
       </c>
-      <c r="E75" t="s">
-        <v>64</v>
+      <c r="E75" t="s" s="625">
+        <v>65</v>
       </c>
       <c r="F75" t="s">
         <v>64</v>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -293,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="954">
+  <fills count="974">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5058,6 +5058,106 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -5077,7 +5177,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="626">
+  <cellXfs count="636">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5718,6 +5818,16 @@
     <xf numFmtId="0" fontId="0" fillId="949" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="951" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="953" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="955" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="957" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="959" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="961" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="963" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="965" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="967" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="969" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="971" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="973" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6056,7 +6166,7 @@
       <c r="E2" t="s" s="552">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="369">
+      <c r="F2" t="s" s="635">
         <v>5</v>
       </c>
       <c r="G2" s="120" t="s">
@@ -6232,7 +6342,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s" s="560">
         <v>65</v>
@@ -6367,7 +6477,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s" s="566">
         <v>65</v>
@@ -6502,7 +6612,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s" s="572">
         <v>65</v>
@@ -6637,7 +6747,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s" s="578">
         <v>65</v>
@@ -6772,7 +6882,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s" s="584">
         <v>65</v>
@@ -6907,7 +7017,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s" s="590">
         <v>65</v>
@@ -7040,7 +7150,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s" s="596">
         <v>66</v>
@@ -7173,7 +7283,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s" s="602">
         <v>66</v>
@@ -7304,7 +7414,7 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s" s="608">
         <v>66</v>
@@ -7439,7 +7549,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s" s="614">
         <v>65</v>
@@ -7574,7 +7684,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s" s="620">
         <v>65</v>
@@ -7711,8 +7821,8 @@
       <c r="D76" t="s">
         <v>63</v>
       </c>
-      <c r="E76" t="s">
-        <v>64</v>
+      <c r="E76" t="s" s="626">
+        <v>65</v>
       </c>
       <c r="F76" t="s">
         <v>64</v>
@@ -7734,8 +7844,8 @@
       <c r="D77" t="s">
         <v>63</v>
       </c>
-      <c r="E77" t="s">
-        <v>64</v>
+      <c r="E77" t="s" s="627">
+        <v>65</v>
       </c>
       <c r="F77" t="s">
         <v>64</v>
@@ -7754,8 +7864,8 @@
       <c r="D78" t="s">
         <v>63</v>
       </c>
-      <c r="E78" t="s">
-        <v>64</v>
+      <c r="E78" t="s" s="628">
+        <v>56</v>
       </c>
       <c r="F78" t="s">
         <v>64</v>
@@ -7777,8 +7887,8 @@
       <c r="D79" t="s">
         <v>63</v>
       </c>
-      <c r="E79" t="s">
-        <v>64</v>
+      <c r="E79" t="s" s="629">
+        <v>65</v>
       </c>
       <c r="F79" t="s">
         <v>64</v>
@@ -7800,8 +7910,8 @@
       <c r="D80" t="s">
         <v>63</v>
       </c>
-      <c r="E80" t="s">
-        <v>64</v>
+      <c r="E80" t="s" s="630">
+        <v>65</v>
       </c>
       <c r="F80" t="s">
         <v>64</v>
@@ -7823,8 +7933,8 @@
       <c r="D81" t="s">
         <v>63</v>
       </c>
-      <c r="E81" t="s">
-        <v>64</v>
+      <c r="E81" t="s" s="631">
+        <v>65</v>
       </c>
       <c r="F81" t="s">
         <v>64</v>
@@ -7846,8 +7956,8 @@
       <c r="D82" t="s">
         <v>63</v>
       </c>
-      <c r="E82" t="s">
-        <v>64</v>
+      <c r="E82" t="s" s="632">
+        <v>65</v>
       </c>
       <c r="F82" t="s">
         <v>64</v>
@@ -7869,8 +7979,8 @@
       <c r="D83" t="s">
         <v>63</v>
       </c>
-      <c r="E83" t="s">
-        <v>64</v>
+      <c r="E83" t="s" s="633">
+        <v>65</v>
       </c>
       <c r="F83" t="s">
         <v>64</v>
@@ -7886,8 +7996,8 @@
       <c r="D84" t="s">
         <v>63</v>
       </c>
-      <c r="E84" t="s">
-        <v>64</v>
+      <c r="E84" t="s" s="634">
+        <v>60</v>
       </c>
       <c r="F84" t="s">
         <v>64</v>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -244,6 +244,9 @@
   <si>
     <t>invalid email addresss</t>
   </si>
+  <si>
+    <t>Locator is not valid</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="974">
+  <fills count="1314">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5148,6 +5151,1706 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -5177,7 +6880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="806">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5828,6 +7531,176 @@
     <xf numFmtId="0" fontId="0" fillId="969" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="971" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="973" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="975" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="977" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="979" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="981" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="983" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="985" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="987" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="989" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="991" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="993" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="995" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="997" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="999" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1001" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1003" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1005" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1007" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1009" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1011" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1013" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1015" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1017" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1019" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1021" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1023" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1025" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1027" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1029" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1031" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1033" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1035" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1037" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1039" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1041" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1043" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1045" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1047" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1049" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1051" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1053" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1055" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1057" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1059" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1061" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1063" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1065" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1067" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1069" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1071" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1073" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1075" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1077" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1079" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1081" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1083" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1085" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1087" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1089" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1091" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1093" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1095" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1097" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1099" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1235" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1237" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1239" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1241" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1247" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1249" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1251" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1253" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1255" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1257" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1259" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1261" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1263" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1265" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1267" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1269" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1271" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1273" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1275" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1277" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1279" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1281" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1283" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1285" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1287" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1289" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1291" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1313" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6169,7 +8042,7 @@
       <c r="F2" t="s" s="635">
         <v>5</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" t="s" s="723">
         <v>5</v>
       </c>
     </row>
@@ -6189,10 +8062,10 @@
       <c r="E3" t="s" s="553">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="121" t="s">
+      <c r="F3" t="s" s="636">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s" s="724">
         <v>65</v>
       </c>
     </row>
@@ -6212,10 +8085,10 @@
       <c r="E4" t="s" s="554">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="122" t="s">
+      <c r="F4" t="s" s="637">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s" s="725">
         <v>65</v>
       </c>
     </row>
@@ -6235,10 +8108,10 @@
       <c r="E5" t="s" s="555">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="123" t="s">
+      <c r="F5" t="s" s="638">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="726">
         <v>10</v>
       </c>
     </row>
@@ -6255,10 +8128,10 @@
       <c r="E6" t="s" s="556">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="124" t="s">
+      <c r="F6" t="s" s="639">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s" s="727">
         <v>65</v>
       </c>
     </row>
@@ -6281,7 +8154,7 @@
       <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" t="s" s="728">
         <v>65</v>
       </c>
     </row>
@@ -6304,7 +8177,7 @@
       <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" t="s" s="729">
         <v>65</v>
       </c>
     </row>
@@ -6327,7 +8200,7 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="127" t="s">
+      <c r="G9" t="s" s="730">
         <v>65</v>
       </c>
     </row>
@@ -6342,7 +8215,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s" s="560">
         <v>65</v>
@@ -6350,7 +8223,7 @@
       <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" t="s" s="731">
         <v>65</v>
       </c>
     </row>
@@ -6373,7 +8246,7 @@
       <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" t="s" s="732">
         <v>65</v>
       </c>
     </row>
@@ -6393,7 +8266,7 @@
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" t="s" s="733">
         <v>22</v>
       </c>
     </row>
@@ -6416,7 +8289,7 @@
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" t="s" s="734">
         <v>65</v>
       </c>
     </row>
@@ -6439,7 +8312,7 @@
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="132" t="s">
+      <c r="G14" t="s" s="735">
         <v>65</v>
       </c>
     </row>
@@ -6462,7 +8335,7 @@
       <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" t="s" s="736">
         <v>65</v>
       </c>
     </row>
@@ -6477,7 +8350,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s" s="566">
         <v>65</v>
@@ -6485,7 +8358,7 @@
       <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" t="s" s="737">
         <v>65</v>
       </c>
     </row>
@@ -6508,7 +8381,7 @@
       <c r="F17" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" t="s" s="738">
         <v>65</v>
       </c>
     </row>
@@ -6528,7 +8401,7 @@
       <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="136" t="s">
+      <c r="G18" t="s" s="739">
         <v>31</v>
       </c>
     </row>
@@ -6551,7 +8424,7 @@
       <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" t="s" s="740">
         <v>65</v>
       </c>
     </row>
@@ -6574,7 +8447,7 @@
       <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="138" t="s">
+      <c r="G20" t="s" s="741">
         <v>65</v>
       </c>
     </row>
@@ -6597,7 +8470,7 @@
       <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" t="s" s="742">
         <v>65</v>
       </c>
     </row>
@@ -6612,7 +8485,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s" s="572">
         <v>65</v>
@@ -6620,7 +8493,7 @@
       <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="140" t="s">
+      <c r="G22" t="s" s="743">
         <v>65</v>
       </c>
     </row>
@@ -6643,7 +8516,7 @@
       <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" t="s" s="744">
         <v>65</v>
       </c>
     </row>
@@ -6663,7 +8536,7 @@
       <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="142" t="s">
+      <c r="G24" t="s" s="745">
         <v>33</v>
       </c>
     </row>
@@ -6686,7 +8559,7 @@
       <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="143" t="s">
+      <c r="G25" t="s" s="746">
         <v>65</v>
       </c>
     </row>
@@ -6709,7 +8582,7 @@
       <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="144" t="s">
+      <c r="G26" t="s" s="747">
         <v>65</v>
       </c>
     </row>
@@ -6732,7 +8605,7 @@
       <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" t="s" s="748">
         <v>65</v>
       </c>
     </row>
@@ -6747,7 +8620,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s" s="578">
         <v>65</v>
@@ -6755,7 +8628,7 @@
       <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="146" t="s">
+      <c r="G28" t="s" s="749">
         <v>65</v>
       </c>
     </row>
@@ -6778,7 +8651,7 @@
       <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" t="s" s="750">
         <v>65</v>
       </c>
     </row>
@@ -6798,7 +8671,7 @@
       <c r="F30" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="148" t="s">
+      <c r="G30" t="s" s="751">
         <v>36</v>
       </c>
     </row>
@@ -6821,7 +8694,7 @@
       <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="149" t="s">
+      <c r="G31" t="s" s="752">
         <v>65</v>
       </c>
     </row>
@@ -6844,7 +8717,7 @@
       <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="150" t="s">
+      <c r="G32" t="s" s="753">
         <v>65</v>
       </c>
     </row>
@@ -6867,7 +8740,7 @@
       <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="151" t="s">
+      <c r="G33" t="s" s="754">
         <v>65</v>
       </c>
     </row>
@@ -6882,7 +8755,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s" s="584">
         <v>65</v>
@@ -6890,7 +8763,7 @@
       <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="152" t="s">
+      <c r="G34" t="s" s="755">
         <v>65</v>
       </c>
     </row>
@@ -6913,7 +8786,7 @@
       <c r="F35" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="153" t="s">
+      <c r="G35" t="s" s="756">
         <v>65</v>
       </c>
     </row>
@@ -6933,7 +8806,7 @@
       <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" t="s" s="757">
         <v>39</v>
       </c>
     </row>
@@ -6956,7 +8829,7 @@
       <c r="F37" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="155" t="s">
+      <c r="G37" t="s" s="758">
         <v>65</v>
       </c>
     </row>
@@ -6979,7 +8852,7 @@
       <c r="F38" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="156" t="s">
+      <c r="G38" t="s" s="759">
         <v>65</v>
       </c>
     </row>
@@ -7002,7 +8875,7 @@
       <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="157" t="s">
+      <c r="G39" t="s" s="760">
         <v>65</v>
       </c>
     </row>
@@ -7017,7 +8890,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s" s="590">
         <v>65</v>
@@ -7025,7 +8898,7 @@
       <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="158" t="s">
+      <c r="G40" t="s" s="761">
         <v>65</v>
       </c>
     </row>
@@ -7048,7 +8921,7 @@
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="159" t="s">
+      <c r="G41" t="s" s="762">
         <v>65</v>
       </c>
     </row>
@@ -7068,7 +8941,7 @@
       <c r="F42" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="160" t="s">
+      <c r="G42" t="s" s="763">
         <v>42</v>
       </c>
     </row>
@@ -7089,7 +8962,7 @@
       <c r="F43" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="161" t="s">
+      <c r="G43" t="s" s="764">
         <v>65</v>
       </c>
     </row>
@@ -7112,7 +8985,7 @@
       <c r="F44" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="162" t="s">
+      <c r="G44" t="s" s="765">
         <v>65</v>
       </c>
     </row>
@@ -7135,7 +9008,7 @@
       <c r="F45" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="163" t="s">
+      <c r="G45" t="s" s="766">
         <v>65</v>
       </c>
     </row>
@@ -7150,7 +9023,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s" s="596">
         <v>66</v>
@@ -7158,7 +9031,7 @@
       <c r="F46" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="164" t="s">
+      <c r="G46" t="s" s="767">
         <v>66</v>
       </c>
     </row>
@@ -7181,7 +9054,7 @@
       <c r="F47" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="165" t="s">
+      <c r="G47" t="s" s="768">
         <v>65</v>
       </c>
     </row>
@@ -7201,7 +9074,7 @@
       <c r="F48" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="166" t="s">
+      <c r="G48" t="s" s="769">
         <v>44</v>
       </c>
     </row>
@@ -7224,7 +9097,7 @@
       <c r="F49" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="167" t="s">
+      <c r="G49" t="s" s="770">
         <v>65</v>
       </c>
     </row>
@@ -7245,7 +9118,7 @@
       <c r="F50" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="168" t="s">
+      <c r="G50" t="s" s="771">
         <v>65</v>
       </c>
     </row>
@@ -7268,7 +9141,7 @@
       <c r="F51" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="169" t="s">
+      <c r="G51" t="s" s="772">
         <v>65</v>
       </c>
     </row>
@@ -7283,7 +9156,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s" s="602">
         <v>66</v>
@@ -7291,7 +9164,7 @@
       <c r="F52" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="170" t="s">
+      <c r="G52" t="s" s="773">
         <v>66</v>
       </c>
     </row>
@@ -7314,7 +9187,7 @@
       <c r="F53" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="171" t="s">
+      <c r="G53" t="s" s="774">
         <v>65</v>
       </c>
     </row>
@@ -7334,7 +9207,7 @@
       <c r="F54" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="172" t="s">
+      <c r="G54" t="s" s="775">
         <v>43</v>
       </c>
     </row>
@@ -7355,7 +9228,7 @@
       <c r="F55" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="173" t="s">
+      <c r="G55" t="s" s="776">
         <v>65</v>
       </c>
     </row>
@@ -7376,7 +9249,7 @@
       <c r="F56" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="174" t="s">
+      <c r="G56" t="s" s="777">
         <v>65</v>
       </c>
     </row>
@@ -7399,7 +9272,7 @@
       <c r="F57" t="s">
         <v>64</v>
       </c>
-      <c r="G57" s="175" t="s">
+      <c r="G57" t="s" s="778">
         <v>65</v>
       </c>
     </row>
@@ -7414,7 +9287,7 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s" s="608">
         <v>66</v>
@@ -7422,7 +9295,7 @@
       <c r="F58" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="176" t="s">
+      <c r="G58" t="s" s="779">
         <v>66</v>
       </c>
     </row>
@@ -7445,7 +9318,7 @@
       <c r="F59" t="s">
         <v>64</v>
       </c>
-      <c r="G59" s="177" t="s">
+      <c r="G59" t="s" s="780">
         <v>65</v>
       </c>
     </row>
@@ -7465,7 +9338,7 @@
       <c r="F60" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="178" t="s">
+      <c r="G60" t="s" s="781">
         <v>48</v>
       </c>
     </row>
@@ -7488,7 +9361,7 @@
       <c r="F61" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="179" t="s">
+      <c r="G61" t="s" s="782">
         <v>65</v>
       </c>
     </row>
@@ -7511,7 +9384,7 @@
       <c r="F62" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="180" t="s">
+      <c r="G62" t="s" s="783">
         <v>65</v>
       </c>
     </row>
@@ -7534,7 +9407,7 @@
       <c r="F63" t="s">
         <v>64</v>
       </c>
-      <c r="G63" s="181" t="s">
+      <c r="G63" t="s" s="784">
         <v>65</v>
       </c>
     </row>
@@ -7549,7 +9422,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s" s="614">
         <v>65</v>
@@ -7557,7 +9430,7 @@
       <c r="F64" t="s">
         <v>64</v>
       </c>
-      <c r="G64" s="182" t="s">
+      <c r="G64" t="s" s="785">
         <v>65</v>
       </c>
     </row>
@@ -7580,7 +9453,7 @@
       <c r="F65" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="183" t="s">
+      <c r="G65" t="s" s="786">
         <v>65</v>
       </c>
     </row>
@@ -7600,7 +9473,7 @@
       <c r="F66" t="s">
         <v>64</v>
       </c>
-      <c r="G66" s="184" t="s">
+      <c r="G66" t="s" s="787">
         <v>51</v>
       </c>
     </row>
@@ -7623,7 +9496,7 @@
       <c r="F67" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="185" t="s">
+      <c r="G67" t="s" s="788">
         <v>65</v>
       </c>
     </row>
@@ -7646,7 +9519,7 @@
       <c r="F68" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="186" t="s">
+      <c r="G68" t="s" s="789">
         <v>65</v>
       </c>
     </row>
@@ -7669,7 +9542,7 @@
       <c r="F69" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="187" t="s">
+      <c r="G69" t="s" s="790">
         <v>65</v>
       </c>
     </row>
@@ -7684,7 +9557,7 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s" s="620">
         <v>65</v>
@@ -7692,7 +9565,7 @@
       <c r="F70" t="s">
         <v>64</v>
       </c>
-      <c r="G70" s="188" t="s">
+      <c r="G70" t="s" s="791">
         <v>65</v>
       </c>
     </row>
@@ -7715,7 +9588,7 @@
       <c r="F71" t="s">
         <v>64</v>
       </c>
-      <c r="G71" s="189" t="s">
+      <c r="G71" t="s" s="792">
         <v>65</v>
       </c>
     </row>
@@ -7735,7 +9608,7 @@
       <c r="F72" t="s">
         <v>64</v>
       </c>
-      <c r="G72" s="190" t="s">
+      <c r="G72" t="s" s="793">
         <v>53</v>
       </c>
     </row>
@@ -7758,7 +9631,7 @@
       <c r="F73" t="s">
         <v>64</v>
       </c>
-      <c r="G73" s="191" t="s">
+      <c r="G73" t="s" s="794">
         <v>65</v>
       </c>
     </row>
@@ -7781,7 +9654,7 @@
       <c r="F74" t="s">
         <v>64</v>
       </c>
-      <c r="G74" s="192" t="s">
+      <c r="G74" t="s" s="795">
         <v>65</v>
       </c>
     </row>
@@ -7804,7 +9677,7 @@
       <c r="F75" t="s">
         <v>64</v>
       </c>
-      <c r="G75" s="193" t="s">
+      <c r="G75" t="s" s="796">
         <v>65</v>
       </c>
     </row>
@@ -7819,7 +9692,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s" s="626">
         <v>65</v>
@@ -7827,7 +9700,7 @@
       <c r="F76" t="s">
         <v>64</v>
       </c>
-      <c r="G76" s="194" t="s">
+      <c r="G76" t="s" s="797">
         <v>65</v>
       </c>
     </row>
@@ -7850,7 +9723,7 @@
       <c r="F77" t="s">
         <v>64</v>
       </c>
-      <c r="G77" s="195" t="s">
+      <c r="G77" t="s" s="798">
         <v>65</v>
       </c>
     </row>
@@ -7870,7 +9743,7 @@
       <c r="F78" t="s">
         <v>64</v>
       </c>
-      <c r="G78" s="196" t="s">
+      <c r="G78" t="s" s="799">
         <v>56</v>
       </c>
     </row>
@@ -7893,7 +9766,7 @@
       <c r="F79" t="s">
         <v>64</v>
       </c>
-      <c r="G79" s="197" t="s">
+      <c r="G79" t="s" s="800">
         <v>65</v>
       </c>
     </row>
@@ -7916,7 +9789,7 @@
       <c r="F80" t="s">
         <v>64</v>
       </c>
-      <c r="G80" s="198" t="s">
+      <c r="G80" t="s" s="801">
         <v>65</v>
       </c>
     </row>
@@ -7939,7 +9812,7 @@
       <c r="F81" t="s">
         <v>64</v>
       </c>
-      <c r="G81" s="199" t="s">
+      <c r="G81" t="s" s="802">
         <v>65</v>
       </c>
     </row>
@@ -7954,7 +9827,7 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s" s="632">
         <v>65</v>
@@ -7962,7 +9835,7 @@
       <c r="F82" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="200" t="s">
+      <c r="G82" t="s" s="803">
         <v>65</v>
       </c>
     </row>
@@ -7985,7 +9858,7 @@
       <c r="F83" t="s">
         <v>64</v>
       </c>
-      <c r="G83" s="201" t="s">
+      <c r="G83" t="s" s="804">
         <v>65</v>
       </c>
     </row>
@@ -8002,7 +9875,7 @@
       <c r="F84" t="s">
         <v>64</v>
       </c>
-      <c r="G84" s="202" t="s">
+      <c r="G84" t="s" s="805">
         <v>60</v>
       </c>
     </row>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\MagnifyB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAAA440-6654-4171-8B36-B54DB5445E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045C7EB-63AF-41A8-A234-8C6ACC691ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -268,13 +268,17 @@
   </si>
   <si>
     <t>Enter</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="147">
+  <fills count="149">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,48 +1004,58 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1066,7 +1080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1230,19 +1244,15 @@
     <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1532,14 +1542,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="149" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1547,31 +1557,31 @@
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="149"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="159"/>
+      <c r="C5" s="149"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="159"/>
+      <c r="C6" s="149"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="159"/>
+      <c r="C7" s="149"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="159"/>
+      <c r="C8" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1583,24 +1593,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="87.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="7" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="98.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="11.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -1702,9 +1710,6 @@
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
         <v>63</v>
       </c>
@@ -1724,6 +1729,9 @@
       </c>
       <c r="B6" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>63</v>
@@ -3506,13 +3514,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3551,13 +3559,13 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" t="s" s="155">
         <v>5</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="137" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3574,13 +3582,13 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="149" t="s">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="138" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3597,13 +3605,13 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="150" t="s">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="139" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3620,13 +3628,13 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="140" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3640,13 +3648,13 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="130" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="141" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="152" t="s">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="141" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3663,13 +3671,13 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="153" t="s">
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="142" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3686,13 +3694,13 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="154" t="s">
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="143" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3709,13 +3717,13 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="144" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="155" t="s">
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="144" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3730,15 +3738,15 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="145" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="145" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3755,13 +3763,13 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="157" t="s">
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="146" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3772,13 +3780,13 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="136" t="s">
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="147" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="147" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3801,13 +3809,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -321,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="149">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +995,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -1080,7 +1170,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1253,6 +1343,15 @@
     <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3559,7 +3658,7 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="155">
+      <c r="E2" t="s" s="164">
         <v>5</v>
       </c>
       <c r="F2" s="126" t="s">

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -321,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="167">
+  <fills count="169">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +995,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -1170,7 +1180,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1352,6 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3658,7 +3669,7 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="164">
+      <c r="E2" t="s" s="165">
         <v>5</v>
       </c>
       <c r="F2" s="126" t="s">

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -321,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="169">
+  <fills count="227">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,6 +1151,296 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -1180,7 +1470,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1363,6 +1653,35 @@
     <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="212" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="214" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="216" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="218" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="220" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="222" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="224" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="226" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3669,13 +3988,13 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="165">
+      <c r="E2" t="s" s="168">
         <v>5</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" t="s" s="179">
         <v>5</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" t="s" s="184">
         <v>5</v>
       </c>
     </row>
@@ -3692,13 +4011,13 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="138" t="s">
+      <c r="E3" t="s" s="169">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="180">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s" s="185">
         <v>65</v>
       </c>
     </row>
@@ -3715,13 +4034,13 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="139" t="s">
+      <c r="E4" t="s" s="170">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="181">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s" s="186">
         <v>65</v>
       </c>
     </row>
@@ -3738,13 +4057,13 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="129" t="s">
+      <c r="E5" t="s" s="171">
         <v>10</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="F5" t="s" s="182">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s" s="187">
         <v>10</v>
       </c>
     </row>
@@ -3758,13 +4077,13 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="130" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="141" t="s">
+      <c r="E6" t="s" s="172">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="183">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s" s="188">
         <v>65</v>
       </c>
     </row>
@@ -3781,13 +4100,13 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="142" t="s">
+      <c r="E7" t="s" s="173">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s" s="189">
         <v>65</v>
       </c>
     </row>
@@ -3804,13 +4123,13 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="143" t="s">
+      <c r="E8" t="s" s="174">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s" s="190">
         <v>65</v>
       </c>
     </row>
@@ -3827,13 +4146,13 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="144" t="s">
+      <c r="E9" t="s" s="175">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s" s="191">
         <v>65</v>
       </c>
     </row>
@@ -3848,15 +4167,15 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="176">
         <v>66</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s" s="192">
         <v>66</v>
       </c>
     </row>
@@ -3873,13 +4192,13 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="146" t="s">
+      <c r="E11" t="s" s="177">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s" s="193">
         <v>65</v>
       </c>
     </row>
@@ -3890,13 +4209,13 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="136" t="s">
+      <c r="E12" t="s" s="178">
         <v>60</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s" s="194">
         <v>60</v>
       </c>
     </row>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8540" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -337,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1632">
+  <fills count="2344">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8112,6 +8112,3566 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -8511,7 +12071,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="893">
+  <cellXfs count="1249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9421,6 +12981,362 @@
     <xf numFmtId="0" fontId="0" fillId="1627" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1629" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1631" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1633" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1635" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1637" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1639" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1641" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1643" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1645" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1647" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1649" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1651" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1653" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1655" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1657" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1659" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1661" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1663" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1665" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1667" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1669" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1671" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1673" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1675" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1677" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1679" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1681" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1683" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1685" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1687" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1689" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1691" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1693" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1695" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1697" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1699" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1701" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1703" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1705" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1707" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1709" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1711" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1713" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1715" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1717" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1719" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1721" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1723" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1725" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1727" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1729" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1731" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1733" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1735" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1737" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1739" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1741" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1743" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1745" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1747" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1749" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1751" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1753" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1755" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1757" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1759" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1761" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1763" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1765" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1767" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1769" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1771" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1773" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1775" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1777" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1779" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1781" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1783" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1785" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1787" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1789" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1791" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1793" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1795" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1797" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1799" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1801" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1803" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1805" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1807" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1809" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1811" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1813" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1815" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1817" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1819" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1821" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1823" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1825" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1827" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1829" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1831" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1833" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1835" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1837" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1839" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1841" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1843" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1845" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1847" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1849" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1851" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1853" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1855" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1857" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1859" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1861" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1863" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1865" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1867" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1869" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1871" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1873" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1875" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1877" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1879" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1881" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1883" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1885" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1887" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1889" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1891" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1893" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1895" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1897" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1899" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1901" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1903" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1905" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1907" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1909" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1911" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1913" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1915" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1917" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1919" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1921" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1923" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1925" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1927" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1929" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1931" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1933" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1935" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1937" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1939" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1941" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1943" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1945" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1947" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1949" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1951" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1953" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1955" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1957" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1959" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1961" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1963" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1965" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1967" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1969" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1971" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1973" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1975" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1977" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1979" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1981" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1983" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1985" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1987" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1989" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1991" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1993" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1995" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1997" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1999" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2001" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2003" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2005" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2007" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2009" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2011" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2013" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2015" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2017" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2019" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2021" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2023" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2025" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2027" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2029" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2031" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2033" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2035" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2037" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2039" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2041" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2043" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2045" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2047" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2049" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2051" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2053" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2055" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2057" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2059" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2061" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2063" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2065" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2067" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2069" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2071" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2073" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2075" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2077" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2079" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2081" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2083" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2085" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2087" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2089" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2091" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2093" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2095" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2097" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2099" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2235" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2237" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2239" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2241" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2247" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2249" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2251" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2253" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2255" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2257" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2259" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2261" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2263" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2265" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2267" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2269" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2271" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2273" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2275" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2277" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2279" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2281" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2283" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2285" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2287" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2289" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2291" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2313" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2317" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2319" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2323" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2325" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2329" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2331" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2335" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2337" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2341" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2343" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9814,10 +13730,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="393">
+      <c r="E2" t="s" s="971">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="688">
+      <c r="F2" t="s" s="1167">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="558">
@@ -9837,11 +13753,11 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="394">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
+      <c r="E3" t="s" s="972">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1168">
+        <v>65</v>
       </c>
       <c r="G3" t="s" s="559">
         <v>65</v>
@@ -9860,11 +13776,11 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="395">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
+      <c r="E4" t="s" s="973">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1169">
+        <v>65</v>
       </c>
       <c r="G4" t="s" s="560">
         <v>65</v>
@@ -9883,11 +13799,11 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="396">
+      <c r="E5" t="s" s="974">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
+      <c r="F5" t="s" s="1170">
+        <v>10</v>
       </c>
       <c r="G5" t="s" s="561">
         <v>10</v>
@@ -9906,11 +13822,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="397">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
+      <c r="E6" t="s" s="975">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1171">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="562">
         <v>65</v>
@@ -9929,11 +13845,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="398">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="976">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1172">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="563">
         <v>65</v>
@@ -9952,11 +13868,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="399">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="977">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1173">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="564">
         <v>65</v>
@@ -9975,11 +13891,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="400">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="978">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1174">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="565">
         <v>65</v>
@@ -9996,13 +13912,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="401">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="979">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1175">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="566">
         <v>66</v>
@@ -10021,11 +13937,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="402">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="980">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1176">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="567">
         <v>65</v>
@@ -10038,11 +13954,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="403">
+      <c r="E12" t="s" s="981">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1177">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="568">
         <v>60</v>
@@ -10111,10 +14027,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="404">
+      <c r="E2" t="s" s="982">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1178">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="569">
@@ -10134,10 +14050,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="405">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="983">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1179">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="570">
@@ -10157,10 +14073,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="406">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="984">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1180">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="571">
@@ -10180,10 +14096,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="407">
+      <c r="E5" t="s" s="985">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1181">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="572">
@@ -10203,10 +14119,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="408">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="986">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1182">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="573">
@@ -10226,10 +14142,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="409">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="987">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1183">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="574">
@@ -10249,10 +14165,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="410">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="988">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1184">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="575">
@@ -10272,10 +14188,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="411">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="989">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1185">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="576">
@@ -10295,10 +14211,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="412">
+      <c r="E10" t="s" s="990">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1186">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="577">
@@ -10318,10 +14234,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="413">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="991">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1187">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="578">
@@ -10335,10 +14251,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="414">
+      <c r="E12" t="s" s="992">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1188">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="579">
@@ -10408,10 +14324,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="415">
+      <c r="E2" t="s" s="993">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1189">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="580">
@@ -10431,10 +14347,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="416">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="994">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1190">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="581">
@@ -10454,10 +14370,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="417">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="995">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1191">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="582">
@@ -10477,10 +14393,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="418">
+      <c r="E5" t="s" s="996">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1192">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="583">
@@ -10500,10 +14416,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="419">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="997">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1193">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="584">
@@ -10523,10 +14439,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="420">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="998">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1194">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="585">
@@ -10546,10 +14462,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="421">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="999">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1195">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="586">
@@ -10569,10 +14485,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="422">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="1000">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1196">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="587">
@@ -10592,10 +14508,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="423">
+      <c r="E10" t="s" s="1001">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1197">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="588">
@@ -10615,10 +14531,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="424">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="1002">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1198">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="589">
@@ -10632,10 +14548,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="425">
+      <c r="E12" t="s" s="1003">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1199">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="590">
@@ -10705,10 +14621,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="426">
+      <c r="E2" t="s" s="1004">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1200">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="591">
@@ -10728,10 +14644,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="427">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="1005">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1201">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="592">
@@ -10751,10 +14667,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="428">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="1006">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1202">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="593">
@@ -10774,10 +14690,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="429">
+      <c r="E5" t="s" s="1007">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1203">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="594">
@@ -10797,10 +14713,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="430">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="1008">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1204">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="595">
@@ -10820,10 +14736,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="431">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="1009">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1205">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="596">
@@ -10843,10 +14759,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="432">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="1010">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1206">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="597">
@@ -10866,10 +14782,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="433">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="1011">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1207">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="598">
@@ -10889,10 +14805,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="434">
+      <c r="E10" t="s" s="1012">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1208">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="599">
@@ -10912,10 +14828,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="435">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="1013">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1209">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="600">
@@ -10929,10 +14845,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="436">
+      <c r="E12" t="s" s="1014">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1210">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="601">
@@ -11002,10 +14918,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="437">
+      <c r="E2" t="s" s="1015">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1211">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="602">
@@ -11025,10 +14941,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="438">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="1016">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1212">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="603">
@@ -11048,10 +14964,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="439">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="1017">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1213">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="604">
@@ -11071,10 +14987,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="440">
+      <c r="E5" t="s" s="1018">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1214">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="605">
@@ -11094,10 +15010,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="441">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="1019">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1215">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="606">
@@ -11117,10 +15033,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="442">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="1020">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1216">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="607">
@@ -11140,10 +15056,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="443">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="1021">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1217">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="608">
@@ -11163,10 +15079,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="444">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="1022">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1218">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="609">
@@ -11186,10 +15102,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="445">
+      <c r="E10" t="s" s="1023">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1219">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="610">
@@ -11209,10 +15125,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="446">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="1024">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1220">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="611">
@@ -11226,10 +15142,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="447">
+      <c r="E12" t="s" s="1025">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1221">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="612">
@@ -11299,10 +15215,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="448">
+      <c r="E2" t="s" s="1026">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1222">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="613">
@@ -11322,10 +15238,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="449">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="1027">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1223">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="614">
@@ -11345,10 +15261,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="450">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="1028">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1224">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="615">
@@ -11368,10 +15284,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="451">
+      <c r="E5" t="s" s="1029">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1225">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="616">
@@ -11391,10 +15307,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="452">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="1030">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1226">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="617">
@@ -11414,10 +15330,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="453">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="1031">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1227">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="618">
@@ -11437,10 +15353,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="454">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="1032">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1228">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="619">
@@ -11460,10 +15376,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="455">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="1033">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1229">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="620">
@@ -11483,10 +15399,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="456">
+      <c r="E10" t="s" s="1034">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1230">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="621">
@@ -11506,10 +15422,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="457">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="1035">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1231">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="622">
@@ -11523,10 +15439,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="458">
+      <c r="E12" t="s" s="1036">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1232">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="623">
@@ -11596,10 +15512,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="459">
+      <c r="E2" t="s" s="1037">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1233">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="624">
@@ -11619,10 +15535,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="460">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="1038">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1234">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="625">
@@ -11642,10 +15558,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="461">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="1039">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1235">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="626">
@@ -11665,10 +15581,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="462">
+      <c r="E5" t="s" s="1040">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1236">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="627">
@@ -11688,11 +15604,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="463">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>65</v>
+      <c r="E6" t="s" s="1041">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1237">
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="628">
         <v>65</v>
@@ -11711,11 +15627,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="464">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>65</v>
+      <c r="E7" t="s" s="1042">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
       </c>
       <c r="G7" t="s" s="629">
         <v>65</v>
@@ -11734,11 +15650,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="465">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>65</v>
+      <c r="E8" t="s" s="1043">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
       </c>
       <c r="G8" t="s" s="630">
         <v>65</v>
@@ -11757,11 +15673,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="466">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>65</v>
+      <c r="E9" t="s" s="1044">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="G9" t="s" s="631">
         <v>65</v>
@@ -11778,13 +15694,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s" s="467">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s" s="1045">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>66</v>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
       <c r="G10" t="s" s="632">
         <v>66</v>
@@ -11803,11 +15719,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="468">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>65</v>
+      <c r="E11" t="s" s="1046">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
       </c>
       <c r="G11" t="s" s="633">
         <v>65</v>
@@ -11820,11 +15736,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="469">
+      <c r="E12" t="s" s="1047">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>60</v>
+      <c r="F12" t="s">
+        <v>64</v>
       </c>
       <c r="G12" t="s" s="634">
         <v>60</v>
@@ -11893,10 +15809,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="470">
+      <c r="E2" t="s" s="1048">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s" s="1238">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="635">
@@ -11916,10 +15832,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="471">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="E3" t="s" s="1049">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1239">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="636">
@@ -11939,10 +15855,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="472">
-        <v>65</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" t="s" s="1050">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1240">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="637">
@@ -11962,10 +15878,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="473">
+      <c r="E5" t="s" s="1051">
         <v>10</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s" s="1241">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="638">
@@ -11985,10 +15901,10 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="474">
-        <v>65</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s" s="1052">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1242">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="639">
@@ -12008,10 +15924,10 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="475">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" t="s" s="1053">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1243">
         <v>65</v>
       </c>
       <c r="G7" t="s" s="640">
@@ -12031,10 +15947,10 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="476">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" t="s" s="1054">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1244">
         <v>65</v>
       </c>
       <c r="G8" t="s" s="641">
@@ -12054,10 +15970,10 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="477">
-        <v>65</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" t="s" s="1055">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1245">
         <v>65</v>
       </c>
       <c r="G9" t="s" s="642">
@@ -12077,10 +15993,10 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="478">
+      <c r="E10" t="s" s="1056">
         <v>66</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" t="s" s="1246">
         <v>66</v>
       </c>
       <c r="G10" t="s" s="643">
@@ -12100,10 +16016,10 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="479">
-        <v>65</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" t="s" s="1057">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1247">
         <v>65</v>
       </c>
       <c r="G11" t="s" s="644">
@@ -12117,10 +16033,10 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="480">
+      <c r="E12" t="s" s="1058">
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" t="s" s="1248">
         <v>60</v>
       </c>
       <c r="G12" t="s" s="645">
@@ -14103,10 +18019,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="866">
+      <c r="E2" t="s" s="894">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="877">
+      <c r="F2" t="s" s="1090">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="882">
@@ -14126,10 +18042,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="867">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="878">
+      <c r="E3" t="s" s="895">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1091">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="883">
@@ -14149,10 +18065,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="868">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="879">
+      <c r="E4" t="s" s="896">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1092">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="884">
@@ -14172,10 +18088,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="869">
+      <c r="E5" t="s" s="897">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="880">
+      <c r="F5" t="s" s="1093">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="885">
@@ -14195,11 +18111,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="870">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="881">
-        <v>71</v>
+      <c r="E6" t="s" s="898">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1094">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="886">
         <v>65</v>
@@ -14218,11 +18134,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="871">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="899">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1095">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="887">
         <v>65</v>
@@ -14241,11 +18157,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="872">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="900">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1096">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="888">
         <v>65</v>
@@ -14264,11 +18180,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="873">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="901">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1097">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="889">
         <v>65</v>
@@ -14287,11 +18203,11 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s" s="874">
+      <c r="E10" t="s" s="902">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1098">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="890">
         <v>66</v>
@@ -14310,11 +18226,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="875">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="903">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1099">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="891">
         <v>65</v>
@@ -14327,11 +18243,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="876">
+      <c r="E12" t="s" s="904">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1100">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="892">
         <v>60</v>
@@ -14401,10 +18317,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="682">
+      <c r="E2" t="s" s="905">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="651">
+      <c r="F2" t="s" s="1101">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="492">
@@ -14424,10 +18340,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="683">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="652">
+      <c r="E3" t="s" s="906">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1102">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="493">
@@ -14447,10 +18363,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s" s="653">
+      <c r="E4" t="s" s="907">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1103">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="494">
@@ -14470,10 +18386,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s" s="654">
+      <c r="E5" t="s" s="908">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="1104">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="495">
@@ -14493,11 +18409,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s" s="655">
-        <v>71</v>
+      <c r="E6" t="s" s="909">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1105">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="496">
         <v>65</v>
@@ -14516,11 +18432,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="910">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1106">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="497">
         <v>65</v>
@@ -14539,11 +18455,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="911">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1107">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="498">
         <v>65</v>
@@ -14562,11 +18478,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="912">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1108">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="499">
         <v>65</v>
@@ -14583,13 +18499,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="913">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s" s="1109">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="500">
         <v>66</v>
@@ -14608,11 +18524,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="914">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1110">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="501">
         <v>65</v>
@@ -14625,11 +18541,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="E12" t="s" s="915">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s" s="1111">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="502">
         <v>60</v>
@@ -14698,10 +18614,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="338">
+      <c r="E2" t="s" s="916">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="656">
+      <c r="F2" t="s" s="1112">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="503">
@@ -14721,10 +18637,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="339">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="657">
+      <c r="E3" t="s" s="917">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1113">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="504">
@@ -14744,10 +18660,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="340">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="658">
+      <c r="E4" t="s" s="918">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1114">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="505">
@@ -14767,10 +18683,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="341">
+      <c r="E5" t="s" s="919">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="659">
+      <c r="F5" t="s" s="1115">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="506">
@@ -14790,11 +18706,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="342">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="660">
-        <v>71</v>
+      <c r="E6" t="s" s="920">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1116">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="507">
         <v>65</v>
@@ -14813,11 +18729,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="343">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="921">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1117">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="508">
         <v>65</v>
@@ -14836,11 +18752,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="344">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="922">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1118">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="509">
         <v>65</v>
@@ -14859,11 +18775,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="345">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="923">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1119">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="510">
         <v>65</v>
@@ -14880,13 +18796,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="346">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="924">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1120">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="511">
         <v>66</v>
@@ -14905,11 +18821,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="347">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="925">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1121">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="512">
         <v>65</v>
@@ -14922,11 +18838,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="348">
+      <c r="E12" t="s" s="926">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1122">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="513">
         <v>60</v>
@@ -14995,10 +18911,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="349">
+      <c r="E2" t="s" s="927">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="661">
+      <c r="F2" t="s" s="1123">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="514">
@@ -15018,10 +18934,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="350">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="662">
+      <c r="E3" t="s" s="928">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1124">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="515">
@@ -15041,10 +18957,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="351">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="663">
+      <c r="E4" t="s" s="929">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1125">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="516">
@@ -15064,10 +18980,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="352">
+      <c r="E5" t="s" s="930">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="664">
+      <c r="F5" t="s" s="1126">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="517">
@@ -15087,11 +19003,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="353">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="665">
-        <v>71</v>
+      <c r="E6" t="s" s="931">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1127">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="518">
         <v>65</v>
@@ -15110,11 +19026,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="354">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="932">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1128">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="519">
         <v>65</v>
@@ -15133,11 +19049,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="355">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="933">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1129">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="520">
         <v>65</v>
@@ -15156,11 +19072,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="356">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="934">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1130">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="521">
         <v>65</v>
@@ -15177,13 +19093,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="357">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="935">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1131">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="522">
         <v>66</v>
@@ -15202,11 +19118,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="358">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="936">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1132">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="523">
         <v>65</v>
@@ -15219,11 +19135,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="359">
+      <c r="E12" t="s" s="937">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1133">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="524">
         <v>60</v>
@@ -15292,10 +19208,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="360">
+      <c r="E2" t="s" s="938">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="666">
+      <c r="F2" t="s" s="1134">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="525">
@@ -15315,10 +19231,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="361">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="667">
+      <c r="E3" t="s" s="939">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1135">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="526">
@@ -15338,10 +19254,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="362">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="668">
+      <c r="E4" t="s" s="940">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1136">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="527">
@@ -15361,10 +19277,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="363">
+      <c r="E5" t="s" s="941">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="669">
+      <c r="F5" t="s" s="1137">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="528">
@@ -15384,11 +19300,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="364">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="670">
-        <v>71</v>
+      <c r="E6" t="s" s="942">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1138">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="529">
         <v>65</v>
@@ -15407,11 +19323,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="365">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="943">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1139">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="530">
         <v>65</v>
@@ -15430,11 +19346,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="366">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="944">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1140">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="531">
         <v>65</v>
@@ -15453,11 +19369,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="367">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="945">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1141">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="532">
         <v>65</v>
@@ -15474,13 +19390,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="368">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="946">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1142">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="533">
         <v>66</v>
@@ -15499,11 +19415,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="369">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="947">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1143">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="534">
         <v>65</v>
@@ -15516,11 +19432,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="370">
+      <c r="E12" t="s" s="948">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1144">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="535">
         <v>60</v>
@@ -15589,10 +19505,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="371">
+      <c r="E2" t="s" s="949">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="671">
+      <c r="F2" t="s" s="1145">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="536">
@@ -15612,10 +19528,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="372">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="672">
+      <c r="E3" t="s" s="950">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1146">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="537">
@@ -15635,10 +19551,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="373">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="673">
+      <c r="E4" t="s" s="951">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1147">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="538">
@@ -15658,10 +19574,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="374">
+      <c r="E5" t="s" s="952">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="674">
+      <c r="F5" t="s" s="1148">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="539">
@@ -15681,11 +19597,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="375">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="675">
-        <v>71</v>
+      <c r="E6" t="s" s="953">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1149">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="540">
         <v>65</v>
@@ -15704,11 +19620,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="376">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="954">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1150">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="541">
         <v>65</v>
@@ -15727,11 +19643,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="377">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="955">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1151">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="542">
         <v>65</v>
@@ -15750,11 +19666,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="378">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="956">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1152">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="543">
         <v>65</v>
@@ -15771,13 +19687,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="379">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="957">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1153">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="544">
         <v>66</v>
@@ -15796,11 +19712,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="380">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="958">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1154">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="545">
         <v>65</v>
@@ -15813,11 +19729,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="381">
+      <c r="E12" t="s" s="959">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1155">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="546">
         <v>60</v>
@@ -15886,10 +19802,10 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s" s="382">
+      <c r="E2" t="s" s="960">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="676">
+      <c r="F2" t="s" s="1156">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="547">
@@ -15909,10 +19825,10 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s" s="383">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s" s="684">
+      <c r="E3" t="s" s="961">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s" s="1157">
         <v>65</v>
       </c>
       <c r="G3" t="s" s="548">
@@ -15932,10 +19848,10 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s" s="384">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="685">
+      <c r="E4" t="s" s="962">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="1158">
         <v>65</v>
       </c>
       <c r="G4" t="s" s="549">
@@ -15955,10 +19871,10 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s" s="385">
+      <c r="E5" t="s" s="963">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="686">
+      <c r="F5" t="s" s="1159">
         <v>10</v>
       </c>
       <c r="G5" t="s" s="550">
@@ -15978,11 +19894,11 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s" s="386">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s" s="687">
-        <v>71</v>
+      <c r="E6" t="s" s="964">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s" s="1160">
+        <v>65</v>
       </c>
       <c r="G6" t="s" s="551">
         <v>65</v>
@@ -16001,11 +19917,11 @@
       <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="387">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+      <c r="E7" t="s" s="965">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="1161">
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="552">
         <v>65</v>
@@ -16024,11 +19940,11 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="388">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+      <c r="E8" t="s" s="966">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s" s="1162">
+        <v>65</v>
       </c>
       <c r="G8" t="s" s="553">
         <v>65</v>
@@ -16047,11 +19963,11 @@
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s" s="389">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
+      <c r="E9" t="s" s="967">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s" s="1163">
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="554">
         <v>65</v>
@@ -16068,13 +19984,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s" s="390">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="968">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
+      <c r="F10" t="s" s="1164">
+        <v>66</v>
       </c>
       <c r="G10" t="s" s="555">
         <v>66</v>
@@ -16093,11 +20009,11 @@
       <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s" s="391">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
+      <c r="E11" t="s" s="969">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s" s="1165">
+        <v>65</v>
       </c>
       <c r="G11" t="s" s="556">
         <v>65</v>
@@ -16110,11 +20026,11 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="392">
+      <c r="E12" t="s" s="970">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
+      <c r="F12" t="s" s="1166">
+        <v>60</v>
       </c>
       <c r="G12" t="s" s="557">
         <v>60</v>

--- a/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
+++ b/TestCasesinExcell/MagnifyB/MagnifyB.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8540" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8585" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -337,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2344">
+  <fills count="2346">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12042,6 +12042,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -12071,7 +12081,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1249">
+  <cellXfs count="1250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -13337,6 +13347,7 @@
     <xf numFmtId="0" fontId="0" fillId="2339" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2341" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2343" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2345" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18022,7 +18033,7 @@
       <c r="E2" t="s" s="894">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="1090">
+      <c r="F2" t="s" s="1249">
         <v>5</v>
       </c>
       <c r="G2" t="s" s="882">
@@ -18045,8 +18056,8 @@
       <c r="E3" t="s" s="895">
         <v>65</v>
       </c>
-      <c r="F3" t="s" s="1091">
-        <v>65</v>
+      <c r="F3" t="s">
+        <v>64</v>
       </c>
       <c r="G3" t="s" s="883">
         <v>65</v>
@@ -18068,8 +18079,8 @@
       <c r="E4" t="s" s="896">
         <v>65</v>
       </c>
-      <c r="F4" t="s" s="1092">
-        <v>65</v>
+      <c r="F4" t="s">
+        <v>64</v>
       </c>
       <c r="G4" t="s" s="884">
         <v>65</v>
@@ -18091,8 +18102,8 @@
       <c r="E5" t="s" s="897">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="1093">
-        <v>10</v>
+      <c r="F5" t="s">
+        <v>64</v>
       </c>
       <c r="G5" t="s" s="885">
         <v>10</v>
@@ -18114,8 +18125,8 @@
       <c r="E6" t="s" s="898">
         <v>65</v>
       </c>
-      <c r="F6" t="s" s="1094">
-        <v>65</v>
+      <c r="F6" t="s">
+        <v>64</v>
       </c>
       <c r="G6" t="s" s="886">
         <v>65</v>
@@ -18137,8 +18148,8 @@
       <c r="E7" t="s" s="899">
         <v>65</v>
       </c>
-      <c r="F7" t="s" s="1095">
-        <v>65</v>
+      <c r="F7" t="s">
+        <v>64</v>
       </c>
       <c r="G7" t="s" s="887">
         <v>65</v>
@@ -18160,8 +18171,8 @@
       <c r="E8" t="s" s="900">
         <v>65</v>
       </c>
-      <c r="F8" t="s" s="1096">
-        <v>65</v>
+      <c r="F8" t="s">
+        <v>64</v>
       </c>
       <c r="G8" t="s" s="888">
         <v>65</v>
@@ -18183,8 +18194,8 @@
       <c r="E9" t="s" s="901">
         <v>65</v>
       </c>
-      <c r="F9" t="s" s="1097">
-        <v>65</v>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="G9" t="s" s="889">
         <v>65</v>
@@ -18201,13 +18212,13 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s" s="902">
         <v>66</v>
       </c>
-      <c r="F10" t="s" s="1098">
-        <v>66</v>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
       <c r="G10" t="s" s="890">
         <v>66</v>
@@ -18229,8 +18240,8 @@
       <c r="E11" t="s" s="903">
         <v>65</v>
       </c>
-      <c r="F11" t="s" s="1099">
-        <v>65</v>
+      <c r="F11" t="s">
+        <v>64</v>
       </c>
       <c r="G11" t="s" s="891">
         <v>65</v>
@@ -18246,8 +18257,8 @@
       <c r="E12" t="s" s="904">
         <v>60</v>
       </c>
-      <c r="F12" t="s" s="1100">
-        <v>60</v>
+      <c r="F12" t="s">
+        <v>64</v>
       </c>
       <c r="G12" t="s" s="892">
         <v>60</v>
